--- a/xlsx/奥克兰 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/奥克兰 (加利福尼亚州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1023">
   <si>
     <t>奥克兰 (加利福尼亚州)</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>政策_政策_加州_奥克兰 (加利福尼亚州)</t>
@@ -35,31 +35,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>阿拉米達縣 (加利福尼亞州)</t>
+    <t>阿拉米达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B3%95%E4%BA%BA</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%B7</t>
   </si>
   <si>
-    <t>市長</t>
+    <t>市长</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Libby_Schaaf</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋標準時間</t>
+    <t>太平洋标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋日光節約時間</t>
+    <t>太平洋日光节约时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-7</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3</t>
   </si>
   <si>
-    <t>舊金山灣</t>
+    <t>旧金山湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%85%8B%E8%90%8A</t>
   </si>
   <si>
-    <t>柏克萊</t>
+    <t>柏克莱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/East_Bay_(San_Francisco_Bay_Area)</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%85%8B%E8%90%8A%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>柏克萊加州大學</t>
+    <t>柏克莱加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1-%E5%A5%A5%E5%85%8B%E5%85%B0%E6%B5%B7%E6%B9%BE%E5%A4%A7%E6%A1%A5</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94</t>
   </si>
   <si>
-    <t>阿拉米達</t>
+    <t>阿拉米达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%92%99%E7%89%B9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -173,25 +173,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口調查局</t>
+    <t>美国人口调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E7%BE%8E%E5%9C%8B%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (美國加州)</t>
+    <t>圣荷西 (美国加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%B2%BB%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>列治文 (加利福尼亞州)</t>
+    <t>列治文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0%E6%B8%AF</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>奧克蘭國際機場 (美國)</t>
+    <t>奥克兰国际机场 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%89%E5%83%B9%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>廉價航空公司</t>
+    <t>廉价航空公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E8%88%AA%E7%A9%BA</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E8%97%8D%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>捷藍航空</t>
+    <t>捷蓝航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Ask.com</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%89%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>醉爾斯</t>
+    <t>醉尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%A0%B9%E9%81%94%E6%96%AF</t>
   </si>
   <si>
-    <t>哈根達斯</t>
+    <t>哈根达斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E6%9C%B5%E6%8B%89</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%AA%E8%B4%AF%E5%A4%A7%E9%99%86%E9%93%81%E8%B7%AF</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AE%E5%A6%82</t>
   </si>
   <si>
-    <t>馮如</t>
+    <t>冯如</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Laney_College</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>飛機</t>
+    <t>飞机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Airmails_of_the_United_States</t>
@@ -341,25 +341,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E6%9E%97%E5%BE%B7%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>查爾斯·林德伯格</t>
+    <t>查尔斯·林德伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%9C%9C%E8%8E%89%E4%BA%9E%C2%B7%E5%8E%84%E7%88%BE%E5%93%88%E7%89%B9</t>
   </si>
   <si>
-    <t>愛蜜莉亞·厄爾哈特</t>
+    <t>爱蜜莉亚·厄尔哈特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E8%98%AD</t>
   </si>
   <si>
-    <t>雪佛蘭</t>
+    <t>雪佛兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%B3%E5%A3%AB%E6%8B%BF</t>
@@ -371,25 +371,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%89%E7%88%BE%E6%96%AF%E5%86%B0%E6%B7%87%E6%B7%8B</t>
   </si>
   <si>
-    <t>醉爾斯冰淇淋</t>
+    <t>醉尔斯冰淇淋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1-%E5%A5%A7%E5%85%8B%E8%98%AD%E6%B5%B7%E7%81%A3%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>舊金山-奧克蘭海灣大橋</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次大戰</t>
+    <t>二次大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B7%B1%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國深南部</t>
+    <t>美国深南部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Merritt_College</t>
@@ -407,25 +404,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%B1%B9%E9%BB%A8</t>
   </si>
   <si>
-    <t>黑豹黨</t>
+    <t>黑豹党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%8D%84%E5%A4%A9%E4%BD%BF</t>
   </si>
   <si>
-    <t>地獄天使</t>
+    <t>地狱天使</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%BB%8A%E9%BB%A8</t>
   </si>
   <si>
-    <t>飛車黨</t>
+    <t>飞车党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>黑社會</t>
+    <t>黑社会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fruitvale,_Oakland,_California</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/1989%E5%B9%B4%E6%B4%9B%E9%A6%AC%E6%99%AE%E5%88%97%E5%A1%94%E5%9C%B0%E9%9C%87</t>
   </si>
   <si>
-    <t>1989年洛馬普列塔地震</t>
+    <t>1989年洛马普列塔地震</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1989_Loma_Prieta_earthquake</t>
@@ -455,13 +452,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80%E6%8D%B7%E9%81%8B</t>
   </si>
   <si>
-    <t>舊金山灣區捷運</t>
+    <t>旧金山湾区捷运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%A5%BF%E7%B6%AD%E7%88%BE%E8%BB%8A%E7%AB%99</t>
   </si>
   <si>
-    <t>福祿維爾車站</t>
+    <t>福禄维尔车站</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/BART_Police_shooting_of_Oscar_Grant</t>
@@ -485,13 +482,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E9%BA%97%E7%8F%8D</t>
   </si>
   <si>
-    <t>關麗珍</t>
+    <t>关丽珍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%94%E9%A0%98%E8%8F%AF%E7%88%BE%E8%A1%97</t>
   </si>
   <si>
-    <t>佔領華爾街</t>
+    <t>佔领华尔街</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Occupy_Oakland</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%9B%BD%E9%93%B6%E8%A1%8C%E9%9B%86%E5%9B%A2</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8B%E5%B4%99%E8%81%AF%E5%90%88%E6%A0%A1%E5%8D%80</t>
   </si>
   <si>
-    <t>屋崙聯合校區</t>
+    <t>屋崙联合校区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cost_Plus_World_Market</t>
@@ -593,13 +590,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8B%E5%B4%99%E8%8F%AF%E5%9F%A0</t>
   </si>
   <si>
-    <t>屋崙華埠</t>
+    <t>屋崙华埠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E8%8F%AF%E5%9F%A0</t>
   </si>
   <si>
-    <t>舊金山華埠</t>
+    <t>旧金山华埠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A5%A5%E5%85%8B%E5%85%B0%E5%9C%A3%E6%AE%BF</t>
@@ -611,25 +608,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E6%B9%96%E5%9F%8E</t>
   </si>
   <si>
-    <t>鹽湖城</t>
+    <t>盐湖城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/80%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>80號州際公路</t>
+    <t>80号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6</t>
   </si>
   <si>
-    <t>沙加緬度</t>
+    <t>沙加缅度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E6%B5%A9%E6%B9%96</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/880%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>880號州際公路</t>
+    <t>880号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/101%E5%8F%B7%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%81%93%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E6%AE%B5</t>
@@ -653,19 +650,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/580%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>580號州際公路 (加利福尼亞州)</t>
+    <t>580号州际公路 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/5%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>5號州際公路</t>
+    <t>5号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%8B%E9%98%BF%E7%91%9F%E8%BF%B7%E5%AE%AB</t>
@@ -677,49 +674,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%A7%91%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康科德 (加利福尼亞州)</t>
+    <t>康科德 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80%E6%8D%B7%E9%81%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>舊金山灣區捷運系統</t>
+    <t>旧金山湾区捷运系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%81%A3%E9%9A%A7%E9%81%93</t>
   </si>
   <si>
-    <t>跨灣隧道</t>
+    <t>跨湾隧道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%BF%E5%B3%B6</t>
   </si>
   <si>
-    <t>天使島</t>
+    <t>天使岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%90%B5</t>
   </si>
   <si>
-    <t>美國國鐵</t>
+    <t>美国国铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD-%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E9%83%A1%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>奧克蘭-阿拉米達郡競技場</t>
+    <t>奥克兰-阿拉米达郡竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B7%9E%E5%8B%87%E5%A3%AB%E9%98%9F</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87%E9%AB%94%E8%82%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>甲骨文體育館</t>
+    <t>甲骨文体育馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0%E7%AA%81%E8%A2%AD%E8%80%85</t>
@@ -743,25 +740,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E9%81%8B%E5%8B%95%E5%AE%B6</t>
   </si>
   <si>
-    <t>奧克蘭運動家</t>
+    <t>奥克兰运动家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E8%97%9D%E8%A1%93%E5%AD%B8%E9%99%A2_(%E4%B8%89%E8%97%A9%E5%B8%82%E7%81%A3%E5%8D%80)</t>
   </si>
   <si>
-    <t>加州藝術學院 (三藩市灣區)</t>
+    <t>加州艺术学院 (三藩市湾区)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E5%A4%A7%E5%AD%B8_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>林肯大學 (加利福尼亞州)</t>
+    <t>林肯大学 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>密爾斯學院</t>
+    <t>密尔斯学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Patten_University</t>
@@ -773,19 +770,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%E6%A2%85%E9%87%8C%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>塞繆爾梅里特大學</t>
+    <t>塞缪尔梅里特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%B0%8F%E9%BE%8D</t>
   </si>
   <si>
-    <t>李小龍</t>
+    <t>李小龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%9A%E6%81%A9%E7%BE%8E</t>
   </si>
   <si>
-    <t>譚恩美</t>
+    <t>谭恩美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E7%91%9E%C2%B7%E5%B8%83%E6%9C%97</t>
@@ -797,19 +794,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%E6%BC%A2%E5%85%8B</t>
   </si>
   <si>
-    <t>湯姆漢克</t>
+    <t>汤姆汉克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%90%E6%B4%BE%E5%85%8B%C2%B7%E5%A4%8F%E5%BA%AB%E7%88%BE</t>
   </si>
   <si>
-    <t>吐派克·夏庫爾</t>
+    <t>吐派克·夏库尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A5%87%C2%B7%E9%9F%93%E5%BE%B7%E6%A3%AE</t>
   </si>
   <si>
-    <t>瑞奇·韓德森</t>
+    <t>瑞奇·韩德森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%C2%B7%E6%91%A9%E6%A0%B9</t>
@@ -821,13 +818,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%C2%B7%E7%BE%85%E8%B3%93%E6%A3%AE</t>
   </si>
   <si>
-    <t>法蘭克·羅賓森</t>
+    <t>法兰克·罗宾森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%A3%AE%C2%B7%E5%9F%BA%E5%BE%B7</t>
   </si>
   <si>
-    <t>傑森·基德</t>
+    <t>杰森·基德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E6%B2%83%E5%BE%B7</t>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>比爾·羅素</t>
+    <t>比尔·罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%C2%B7%E4%BC%A6%E6%95%A6</t>
@@ -899,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%96%AC%E9%87%8C%E5%A5%A7%E6%96%AF</t>
   </si>
   <si>
-    <t>奧喬里奧斯</t>
+    <t>奥乔里奥斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/California_Department_of_Justice</t>
@@ -983,9 +980,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -995,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -1007,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1025,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1043,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1061,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E4%BC%A6%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1073,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1103,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1145,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A4%9A%E5%85%8B%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1163,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -1175,13 +1169,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF</t>
@@ -1199,61 +1193,58 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>旧金山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1271,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1337,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1373,13 +1364,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1403,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%B8%81_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1421,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1445,19 +1436,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1475,13 +1466,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1499,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -1529,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1541,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -1601,13 +1592,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -1631,13 +1622,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>內華達山脈</t>
+    <t>内华达山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -1649,19 +1640,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%BB%E8%A6%81%E9%83%BD%E5%B8%82%E4%BA%BA%E5%8F%A3%E9%A0%86%E4%BD%8D</t>
   </si>
   <si>
-    <t>美國主要都市人口順位</t>
+    <t>美国主要都市人口顺位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -1673,13 +1664,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>休士頓</t>
+    <t>休士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>鳳凰城 (亞利桑那州)</t>
+    <t>凤凰城 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
@@ -1691,13 +1682,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖安東尼奧 (德克薩斯州)</t>
+    <t>圣安东尼奥 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>達拉斯</t>
+    <t>达拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E7%BB%B4%E5%B0%94_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -1709,19 +1700,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80</t>
   </si>
   <si>
-    <t>奧斯汀</t>
+    <t>奥斯汀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哥倫布 (俄亥俄州)</t>
+    <t>哥伦布 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%96%AF%E5%A0%A1</t>
@@ -1733,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>夏洛特 (北卡羅萊那州)</t>
+    <t>夏洛特 (北卡罗莱那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B</t>
@@ -1745,25 +1736,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%B8%95%E7%B4%A2_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾爾帕索 (德克薩斯州)</t>
+    <t>艾尔帕索 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1787,7 +1778,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>路易斯維爾</t>
+    <t>路易斯维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%B0%94%E6%B2%83%E5%9F%BA</t>
@@ -1799,19 +1790,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD_(%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波特蘭 (奧勒岡州)</t>
+    <t>波特兰 (奥勒冈州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>拉斯維加斯</t>
+    <t>拉斯维加斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>奧克拉荷馬市</t>
+    <t>奥克拉荷马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%A5%8E%E5%9F%BA_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
@@ -1823,49 +1814,46 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A3%AE_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>圖森 (亞利桑那州)</t>
+    <t>图森 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%9B%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>佛雷斯諾</t>
+    <t>佛雷斯诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%81%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>長灘 (加利福尼亞州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%9F%8E_(%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E)</t>
   </si>
   <si>
-    <t>堪薩斯城 (密蘇里州)</t>
+    <t>堪萨斯城 (密苏里州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%96%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅薩 (亞利桑那州)</t>
+    <t>梅萨 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E6%B5%B7%E7%81%98</t>
   </si>
   <si>
-    <t>維吉尼亞海灘</t>
+    <t>维吉尼亚海滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B3%89</t>
   </si>
   <si>
-    <t>科羅拉多泉</t>
+    <t>科罗拉多泉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%A9%AC%E5%93%88_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1883,19 +1871,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里夫蘭 (俄亥俄州)</t>
+    <t>克里夫兰 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%88%BE%E8%96%A9</t>
   </si>
   <si>
-    <t>圖爾薩</t>
+    <t>图尔萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E9%98%BF%E6%B3%A2%E5%88%A9%E6%96%AF</t>
@@ -1919,9 +1907,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA</t>
   </si>
   <si>
-    <t>旧金山湾区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E6%B9%BE%E5%8C%BA%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -1931,9 +1916,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89%E5%8E%BF</t>
   </si>
   <si>
@@ -1943,37 +1925,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E8%B2%9D%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>坎貝爾 (加利福尼亞州)</t>
+    <t>坎贝尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%AF%94%E8%92%82%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫比蒂諾 (加利福尼亞州)</t>
+    <t>库比蒂诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E7%BE%85%E4%BC%8A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>吉爾羅伊 (加利福尼亞州)</t>
+    <t>吉尔罗伊 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯 (加利福尼亞州)</t>
+    <t>洛思阿图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E9%98%BF%E5%9C%96%E6%96%AF%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思阿圖斯山丘 (加利福尼亞州)</t>
+    <t>洛思阿图斯山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%80%9D%E5%8A%A0%E5%9C%96%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛思加圖斯 (加利福尼亞州)</t>
+    <t>洛思加图斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E7%9A%AE%E5%A1%94%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1985,13 +1967,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A0%A4%E8%81%96%E5%88%A9%E8%AB%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙堤聖利諾 (加利福尼亞州)</t>
+    <t>蒙堤圣利诺 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%B1%B1%E4%B8%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>摩根山丘 (加利福尼亞州)</t>
+    <t>摩根山丘 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%99%AF%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2003,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧圖 (加利福尼亞州)</t>
+    <t>帕罗奥图 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2015,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩拉托加 (加利福尼亞州)</t>
+    <t>萨拉托加 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%A2%85%E8%BE%BE%E5%8E%BF</t>
@@ -2033,43 +2015,40 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9F%8F%E5%B0%BC_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧柏尼 (加利福尼亞州)</t>
+    <t>奥柏尼 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯克利 (加利福尼亞州)</t>
+    <t>伯克利 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E4%BC%AF%E6%9E%97_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>都伯林 (加利福尼亞州)</t>
+    <t>都伯林 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8E%AB%E5%88%A9%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>愛莫利維爾</t>
+    <t>爱莫利维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>费利蒙 (加利福尼亚州)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E4%BD%9B%E6%91%A9_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>利佛摩 (加利福尼亞州)</t>
+    <t>利佛摩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8F%AF%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紐華克 (加利福尼亞州)</t>
+    <t>纽华克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E6%A3%AE%E9%A1%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2081,13 +2060,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%88%A9%E5%AE%89%E5%8D%93_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖利安卓 (加利福尼亞州)</t>
+    <t>圣利安卓 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%B8%82_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聯合市 (加利福尼亞州)</t>
+    <t>联合市 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%88%81%E5%8E%BF</t>
@@ -2147,7 +2126,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%9C%88%E7%81%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>半月灣 (加利福尼亞州)</t>
+    <t>半月湾 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%B0%94%E6%96%AF%E4%BC%AF%E5%8B%92_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2207,7 +2186,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9E%97%E7%B8%A3</t>
   </si>
   <si>
-    <t>馬林縣</t>
+    <t>马林县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E9%9F%A6%E4%BB%A3%E9%9B%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2279,7 +2258,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A2%9D%E5%85%8B_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安條克 (加利福尼亞州)</t>
+    <t>安条克 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E4%BC%A6%E7%89%B9%E4%BC%8D%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2393,7 +2372,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%B3%BD%E8%B0%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>美利堅峽谷 (加利福尼亞州)</t>
+    <t>美利坚峡谷 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E6%96%AF%E6%89%98%E5%8A%A0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -2507,7 +2486,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%96%E5%BE%B7%E8%90%A8</t>
@@ -2537,13 +2516,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%90%E6%96%AF%E8%8C%A8%E5%A5%A7%E7%B4%8D</t>
   </si>
   <si>
-    <t>耐斯茨奧納</t>
+    <t>耐斯茨奥纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%B0%94%E6%A3%AE</t>
@@ -2621,9 +2600,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>迈阿密</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E6%96%AF%E7%89%B9_(%E6%B3%95%E5%9B%BD)</t>
   </si>
   <si>
@@ -2639,21 +2615,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B8%AF%E5%8D%80_(%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF)</t>
   </si>
   <si>
-    <t>大港區 (毛里求斯)</t>
+    <t>大港区 (毛里求斯)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%87%A1%E7%B4%8D%E5%8D%80</t>
   </si>
   <si>
-    <t>薩凡納區</t>
+    <t>萨凡纳区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BD%BC%E5%BE%97%E5%A0%A1</t>
   </si>
   <si>
@@ -2663,7 +2636,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E8%BF%88%E5%BA%9C</t>
@@ -2675,13 +2648,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>奧克蘭都會區</t>
+    <t>奥克兰都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
@@ -2735,7 +2708,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E4%BA%9A%E4%BF%84</t>
@@ -2747,7 +2720,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E6%B5%B7%E5%A7%86</t>
@@ -2843,7 +2816,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%A7%91%E8%A5%BF%E4%BA%9A</t>
@@ -2867,7 +2840,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%93%E7%89%B9%E7%83%88%E6%B8%AF%E8%87%AA%E6%B2%BB%E5%B8%82</t>
@@ -2897,13 +2870,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%81%A9%E6%96%AF_(%E6%98%86%E5%A3%AB%E8%98%AD%E5%B7%9E)</t>
   </si>
   <si>
-    <t>凱恩斯 (昆士蘭州)</t>
+    <t>凯恩斯 (昆士兰州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%B4%9B%E4%BC%8A%E6%B4%9B%E5%B8%82</t>
@@ -2933,13 +2906,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8C%B5%EF%BC%8D%E5%85%A7%E5%8D%A1</t>
   </si>
   <si>
-    <t>萊茵－內卡</t>
+    <t>莱茵－内卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%89%98%E5%A4%A7%E5%8C%BA</t>
@@ -2969,9 +2942,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>达拉斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%A1%9E%E5%B0%94%E5%A4%9A%E5%A4%AB%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
   </si>
   <si>
@@ -3035,7 +3005,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%8C%A6%E5%B8%82</t>
   </si>
   <si>
-    <t>萬錦市</t>
+    <t>万锦市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9A%E6%97%A5%E7%9C%81</t>
@@ -3089,7 +3059,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -5195,7 +5165,7 @@
         <v>119</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -5221,10 +5191,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5250,10 +5220,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -5279,10 +5249,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -5308,10 +5278,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -5337,10 +5307,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5366,10 +5336,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5395,10 +5365,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5424,10 +5394,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5453,10 +5423,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5482,10 +5452,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5511,10 +5481,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5540,10 +5510,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5569,10 +5539,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -5598,10 +5568,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5627,10 +5597,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5656,10 +5626,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5685,10 +5655,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5714,10 +5684,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -5743,10 +5713,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5772,10 +5742,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>8</v>
@@ -5801,10 +5771,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -5830,10 +5800,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5859,10 +5829,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5888,10 +5858,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5917,10 +5887,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5946,10 +5916,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5975,10 +5945,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6004,10 +5974,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -6033,10 +6003,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -6062,10 +6032,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6091,10 +6061,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6120,10 +6090,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6149,10 +6119,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6178,10 +6148,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -6207,10 +6177,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6236,10 +6206,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6265,10 +6235,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -6294,10 +6264,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -6323,10 +6293,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -6352,10 +6322,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6381,10 +6351,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -6410,10 +6380,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -6439,10 +6409,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -6468,10 +6438,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6497,10 +6467,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6526,10 +6496,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>6</v>
@@ -6555,10 +6525,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6584,10 +6554,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6613,10 +6583,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6642,10 +6612,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6671,10 +6641,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6700,10 +6670,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6729,10 +6699,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6758,10 +6728,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6787,10 +6757,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6816,10 +6786,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6845,10 +6815,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6874,10 +6844,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6903,10 +6873,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6932,10 +6902,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6961,10 +6931,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6990,10 +6960,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7019,10 +6989,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -7048,10 +7018,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7077,10 +7047,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -7106,10 +7076,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7135,10 +7105,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7164,10 +7134,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7193,10 +7163,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7222,10 +7192,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -7251,10 +7221,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7280,10 +7250,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7309,10 +7279,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7338,10 +7308,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7367,10 +7337,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7396,10 +7366,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7425,10 +7395,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7454,10 +7424,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7483,10 +7453,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7512,10 +7482,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>3</v>
@@ -7541,10 +7511,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7570,10 +7540,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>7</v>
@@ -7599,10 +7569,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -7628,10 +7598,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7657,10 +7627,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7686,10 +7656,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7715,10 +7685,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7744,10 +7714,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" t="s">
         <v>295</v>
-      </c>
-      <c r="F148" t="s">
-        <v>296</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7773,10 +7743,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>296</v>
+      </c>
+      <c r="F149" t="s">
         <v>297</v>
-      </c>
-      <c r="F149" t="s">
-        <v>298</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7802,10 +7772,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>298</v>
+      </c>
+      <c r="F150" t="s">
         <v>299</v>
-      </c>
-      <c r="F150" t="s">
-        <v>300</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7831,10 +7801,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>300</v>
+      </c>
+      <c r="F151" t="s">
         <v>301</v>
-      </c>
-      <c r="F151" t="s">
-        <v>302</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7860,10 +7830,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>302</v>
+      </c>
+      <c r="F152" t="s">
         <v>303</v>
-      </c>
-      <c r="F152" t="s">
-        <v>304</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7889,10 +7859,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" t="s">
         <v>305</v>
-      </c>
-      <c r="F153" t="s">
-        <v>306</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7918,10 +7888,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>306</v>
+      </c>
+      <c r="F154" t="s">
         <v>307</v>
-      </c>
-      <c r="F154" t="s">
-        <v>308</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7947,10 +7917,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>308</v>
+      </c>
+      <c r="F155" t="s">
         <v>309</v>
-      </c>
-      <c r="F155" t="s">
-        <v>310</v>
       </c>
       <c r="G155" t="n">
         <v>10</v>
@@ -7976,10 +7946,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>310</v>
+      </c>
+      <c r="F156" t="s">
         <v>311</v>
-      </c>
-      <c r="F156" t="s">
-        <v>312</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -8005,10 +7975,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>312</v>
+      </c>
+      <c r="F157" t="s">
         <v>313</v>
-      </c>
-      <c r="F157" t="s">
-        <v>314</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8034,10 +8004,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>314</v>
+      </c>
+      <c r="F158" t="s">
         <v>315</v>
-      </c>
-      <c r="F158" t="s">
-        <v>316</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8063,10 +8033,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F159" t="s">
         <v>317</v>
-      </c>
-      <c r="F159" t="s">
-        <v>318</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8092,10 +8062,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>318</v>
+      </c>
+      <c r="F160" t="s">
         <v>319</v>
-      </c>
-      <c r="F160" t="s">
-        <v>320</v>
       </c>
       <c r="G160" t="n">
         <v>6</v>
@@ -8121,10 +8091,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>10</v>
       </c>
       <c r="G161" t="n">
         <v>8</v>
@@ -8150,10 +8120,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -8179,10 +8149,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -8208,10 +8178,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8237,10 +8207,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -8295,10 +8265,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>170</v>
+      </c>
+      <c r="F167" t="s">
         <v>171</v>
-      </c>
-      <c r="F167" t="s">
-        <v>172</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -8324,10 +8294,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8353,10 +8323,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8382,10 +8352,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8411,10 +8381,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8440,10 +8410,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8469,10 +8439,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -8498,10 +8468,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8527,10 +8497,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8556,10 +8526,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8585,10 +8555,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8614,10 +8584,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8643,10 +8613,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8672,10 +8642,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8701,10 +8671,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8730,10 +8700,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8759,10 +8729,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8788,10 +8758,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8817,10 +8787,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -8846,10 +8816,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8875,10 +8845,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8904,10 +8874,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8933,10 +8903,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8962,10 +8932,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8991,10 +8961,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9020,10 +8990,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9049,10 +9019,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9078,10 +9048,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9107,10 +9077,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9136,10 +9106,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -9165,10 +9135,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9194,10 +9164,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9223,10 +9193,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9252,10 +9222,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9281,10 +9251,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F201" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -9310,10 +9280,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -9339,10 +9309,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F203" t="s">
-        <v>402</v>
+        <v>46</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9368,10 +9338,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F204" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9397,10 +9367,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F205" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9426,10 +9396,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F206" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -9455,10 +9425,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F207" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9484,10 +9454,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F208" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G208" t="n">
         <v>5</v>
@@ -9513,10 +9483,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9542,10 +9512,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F210" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -9571,10 +9541,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F211" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9600,10 +9570,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9629,10 +9599,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9658,10 +9628,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9687,10 +9657,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9716,10 +9686,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9745,10 +9715,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9774,10 +9744,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9803,10 +9773,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9832,10 +9802,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9861,10 +9831,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9890,10 +9860,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F222" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9919,10 +9889,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F223" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9948,10 +9918,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F224" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9977,10 +9947,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F225" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10006,10 +9976,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10035,10 +10005,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F227" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -10064,10 +10034,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F228" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10093,10 +10063,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F229" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10122,10 +10092,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F230" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -10151,10 +10121,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>224</v>
+      </c>
+      <c r="F231" t="s">
         <v>225</v>
-      </c>
-      <c r="F231" t="s">
-        <v>226</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10180,10 +10150,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -10209,10 +10179,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10238,10 +10208,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10267,10 +10237,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10296,10 +10266,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10325,10 +10295,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10354,10 +10324,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10383,10 +10353,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10412,10 +10382,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10441,10 +10411,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F241" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10470,10 +10440,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F242" t="s">
-        <v>402</v>
+        <v>46</v>
       </c>
       <c r="G242" t="n">
         <v>7</v>
@@ -10499,10 +10469,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10528,10 +10498,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10557,10 +10527,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -10586,10 +10556,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10615,10 +10585,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10644,10 +10614,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10673,10 +10643,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10702,10 +10672,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10731,10 +10701,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10760,10 +10730,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10789,10 +10759,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10818,10 +10788,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10847,10 +10817,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10876,10 +10846,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10905,10 +10875,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10934,10 +10904,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10963,10 +10933,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10992,10 +10962,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11021,10 +10991,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11050,10 +11020,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11079,10 +11049,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11108,10 +11078,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11137,10 +11107,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11166,10 +11136,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11195,10 +11165,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11224,10 +11194,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11253,10 +11223,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11282,10 +11252,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11311,10 +11281,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11340,10 +11310,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11369,10 +11339,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11398,10 +11368,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11427,10 +11397,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11456,10 +11426,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11485,10 +11455,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11514,10 +11484,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11543,10 +11513,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11572,10 +11542,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11601,10 +11571,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F281" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11630,10 +11600,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F282" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11659,10 +11629,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F283" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11688,10 +11658,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11717,10 +11687,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11746,10 +11716,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11775,10 +11745,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11804,10 +11774,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11833,10 +11803,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11862,10 +11832,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11891,10 +11861,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11920,10 +11890,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11949,10 +11919,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F293" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11978,10 +11948,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F294" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12007,10 +11977,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F295" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12036,10 +12006,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F296" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12065,10 +12035,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F297" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12094,10 +12064,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F298" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12123,10 +12093,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F299" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12152,10 +12122,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F300" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12181,10 +12151,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F301" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12210,10 +12180,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F302" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12239,10 +12209,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F303" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12268,10 +12238,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F304" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12297,10 +12267,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F305" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12326,10 +12296,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F306" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12355,10 +12325,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F307" t="s">
-        <v>606</v>
+        <v>447</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12384,10 +12354,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F308" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12413,10 +12383,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F309" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12442,10 +12412,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F310" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12471,10 +12441,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F311" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12500,10 +12470,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F312" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12529,10 +12499,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F313" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12558,10 +12528,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F314" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12587,10 +12557,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F315" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12616,10 +12586,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F316" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12645,10 +12615,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F317" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12674,10 +12644,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F318" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12703,10 +12673,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F319" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12732,10 +12702,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F320" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12761,10 +12731,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F321" t="s">
-        <v>634</v>
+        <v>54</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12790,10 +12760,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F322" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G322" t="n">
         <v>24</v>
@@ -12819,10 +12789,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F323" t="s">
-        <v>638</v>
+        <v>6</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12848,10 +12818,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F324" t="s">
-        <v>322</v>
+        <v>10</v>
       </c>
       <c r="G324" t="n">
         <v>7</v>
@@ -12877,10 +12847,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F325" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12906,10 +12876,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F326" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12935,10 +12905,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F327" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12964,10 +12934,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F328" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12993,10 +12963,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F329" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13022,10 +12992,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F330" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13051,10 +13021,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F331" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13080,10 +13050,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F332" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13109,10 +13079,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F333" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13138,10 +13108,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F334" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13167,10 +13137,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F335" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13196,10 +13166,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F336" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13225,10 +13195,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F337" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13254,10 +13224,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F338" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13283,10 +13253,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F339" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G339" t="n">
         <v>3</v>
@@ -13312,10 +13282,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F340" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13341,10 +13311,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F341" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13370,10 +13340,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F342" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13399,10 +13369,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F343" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13428,10 +13398,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F344" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13457,10 +13427,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F345" t="s">
-        <v>680</v>
+        <v>225</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13486,10 +13456,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F346" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13515,10 +13485,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F347" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13544,10 +13514,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F348" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13573,10 +13543,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F349" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13602,10 +13572,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F350" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13631,10 +13601,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F351" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13660,10 +13630,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F352" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13689,10 +13659,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F353" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13718,10 +13688,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F354" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13747,10 +13717,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F355" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13776,10 +13746,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F356" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13805,10 +13775,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F357" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13834,10 +13804,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F358" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13863,10 +13833,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F359" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13892,10 +13862,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F360" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13921,10 +13891,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F361" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13950,10 +13920,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F362" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13979,10 +13949,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F363" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14008,10 +13978,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F364" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14037,10 +14007,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F365" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14066,10 +14036,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F366" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14095,10 +14065,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F367" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14124,10 +14094,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F368" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14153,10 +14123,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F369" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14182,10 +14152,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F370" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14211,10 +14181,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F371" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14240,10 +14210,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F372" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14269,10 +14239,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F373" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14298,10 +14268,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F374" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14327,10 +14297,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F375" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14356,10 +14326,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F376" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14385,10 +14355,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F377" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14414,10 +14384,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F378" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="G378" t="n">
         <v>3</v>
@@ -14443,10 +14413,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F379" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14472,10 +14442,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F380" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14501,10 +14471,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F381" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14530,10 +14500,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F382" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14559,10 +14529,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F383" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14588,10 +14558,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F384" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14617,10 +14587,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F385" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14646,10 +14616,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F386" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14675,10 +14645,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F387" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14704,10 +14674,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F388" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14733,10 +14703,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F389" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14762,10 +14732,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F390" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14791,10 +14761,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F391" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14820,10 +14790,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F392" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14849,10 +14819,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F393" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14878,10 +14848,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F394" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14907,10 +14877,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F395" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14936,10 +14906,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F396" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14965,10 +14935,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F397" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14994,10 +14964,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F398" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15023,10 +14993,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F399" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15052,10 +15022,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F400" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15081,10 +15051,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F401" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15110,10 +15080,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F402" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15139,10 +15109,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F403" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15168,10 +15138,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F404" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15197,10 +15167,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F405" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15226,10 +15196,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F406" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15255,10 +15225,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F407" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15284,10 +15254,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F408" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15313,10 +15283,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F409" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15342,10 +15312,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F410" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15371,10 +15341,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F411" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15400,10 +15370,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F412" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15429,10 +15399,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F413" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15458,10 +15428,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F414" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15487,10 +15457,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F415" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15516,10 +15486,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F416" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15545,10 +15515,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F417" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15574,10 +15544,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F418" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15603,10 +15573,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F419" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15632,10 +15602,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F420" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15661,10 +15631,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F421" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G421" t="n">
         <v>6</v>
@@ -15690,10 +15660,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F422" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15719,10 +15689,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F423" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15748,10 +15718,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F424" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15777,10 +15747,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F425" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15806,10 +15776,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F426" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="G426" t="n">
         <v>7</v>
@@ -15835,10 +15805,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F427" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15864,10 +15834,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F428" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -15893,10 +15863,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F429" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15922,10 +15892,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F430" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15951,10 +15921,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F431" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15980,10 +15950,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="F432" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16009,10 +15979,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F433" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16038,10 +16008,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="F434" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16067,10 +16037,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F435" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16096,10 +16066,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F436" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16125,10 +16095,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="F437" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16154,10 +16124,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="F438" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16183,10 +16153,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="F439" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16212,10 +16182,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F440" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16241,10 +16211,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="F441" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="G441" t="n">
         <v>3</v>
@@ -16270,10 +16240,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="F442" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16299,10 +16269,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="F443" t="s">
-        <v>868</v>
+        <v>618</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16328,10 +16298,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="F444" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16357,10 +16327,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="F445" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16386,10 +16356,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="F446" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16415,10 +16385,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="F447" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16444,10 +16414,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="F448" t="s">
-        <v>878</v>
+        <v>287</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -16473,10 +16443,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="F449" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16502,10 +16472,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="F450" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -16531,10 +16501,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F451" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16560,10 +16530,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="F452" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -16589,10 +16559,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="F453" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="G453" t="n">
         <v>12</v>
@@ -16618,10 +16588,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="F454" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16647,10 +16617,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="F455" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16676,10 +16646,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="F456" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16705,10 +16675,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="F457" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16734,10 +16704,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="F458" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="G458" t="n">
         <v>2</v>
@@ -16763,10 +16733,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="F459" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16792,10 +16762,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="F460" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16821,10 +16791,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="F461" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16850,10 +16820,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="F462" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16879,10 +16849,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="F463" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16908,10 +16878,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="F464" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="G464" t="n">
         <v>4</v>
@@ -16937,10 +16907,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="F465" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16966,10 +16936,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="F466" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16995,10 +16965,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="F467" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17024,10 +16994,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="F468" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17053,10 +17023,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="F469" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="G469" t="n">
         <v>2</v>
@@ -17082,10 +17052,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="F470" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17111,10 +17081,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="F471" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17140,10 +17110,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="F472" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -17169,10 +17139,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="F473" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17198,10 +17168,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="F474" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17227,10 +17197,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="F475" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17256,10 +17226,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="F476" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17285,10 +17255,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="F477" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17314,10 +17284,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="F478" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="G478" t="n">
         <v>3</v>
@@ -17343,10 +17313,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="F479" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17372,10 +17342,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="F480" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17401,10 +17371,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="F481" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17430,10 +17400,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F482" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17459,10 +17429,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="F483" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="G483" t="n">
         <v>3</v>
@@ -17488,10 +17458,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="F484" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17517,10 +17487,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="F485" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17546,10 +17516,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="F486" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="G486" t="n">
         <v>3</v>
@@ -17575,10 +17545,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="F487" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17604,10 +17574,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="F488" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17633,10 +17603,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F489" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17662,10 +17632,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F490" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17691,10 +17661,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="F491" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17720,10 +17690,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="F492" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17749,10 +17719,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="F493" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17778,10 +17748,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="F494" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17807,10 +17777,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="F495" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="G495" t="n">
         <v>2</v>
@@ -17836,10 +17806,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="F496" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17865,10 +17835,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="F497" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17894,10 +17864,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="F498" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17923,10 +17893,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="F499" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17952,10 +17922,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="F500" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17981,10 +17951,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="F501" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18010,10 +17980,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="F502" t="s">
-        <v>984</v>
+        <v>557</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18039,10 +18009,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="F503" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18068,10 +18038,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="F504" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18097,10 +18067,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="F505" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18126,10 +18096,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="F506" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18155,10 +18125,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="F507" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18184,10 +18154,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="F508" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18213,10 +18183,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="F509" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18242,10 +18212,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="F510" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18271,10 +18241,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="F511" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18300,10 +18270,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="F512" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18329,10 +18299,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="F513" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18358,10 +18328,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="F514" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18387,10 +18357,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="F515" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18416,10 +18386,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="F516" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18445,10 +18415,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="F517" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18474,10 +18444,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="F518" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18503,10 +18473,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="F519" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18532,10 +18502,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="F520" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="G520" t="n">
         <v>2</v>
@@ -18561,10 +18531,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="F521" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18590,10 +18560,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="F522" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="G522" t="n">
         <v>3</v>
@@ -18619,10 +18589,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="F523" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18648,10 +18618,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="F524" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18677,10 +18647,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="F525" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18706,10 +18676,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="F526" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>

--- a/xlsx/奥克兰 (加利福尼亚州)_intext.xlsx
+++ b/xlsx/奥克兰 (加利福尼亚州)_intext.xlsx
@@ -29,7 +29,7 @@
     <t>國家</t>
   </si>
   <si>
-    <t>政策_政策_加州_奥克兰 (加利福尼亚州)</t>
+    <t>体育运动_体育运动_种族歧视_奥克兰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
